--- a/Design/NOT  DOCUMENT STUFF/Content/Normalisation 2  Electric Boogaloo.xlsx
+++ b/Design/NOT  DOCUMENT STUFF/Content/Normalisation 2  Electric Boogaloo.xlsx
@@ -602,7 +602,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A15" sqref="A15:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
